--- a/数据整理/stocks/A股/深证主板/002007-华兰生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/002007-华兰生物.xlsx
@@ -451,659 +451,889 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>158.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6637</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>005911</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>广发双擎升级混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>195.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>94.03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.81</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4899</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3421</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2296</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6499</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6407</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005543</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华心诚灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3855</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000589</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信银发商机主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003458</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实稳宏债券A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005848</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华裕利混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>005463</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>银华多元收益定期开放混合A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>20.10</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1.40</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003459</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实稳宏债券C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>005464</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>银华多元收益定期开放混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>20.10</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1.40</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000960</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商医药健康产业股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009314</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发双擎升级混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000589</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>光大保德信银发商机主题混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>83.21</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010572</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达中证万得生物科技指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159992</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银华中证创新药产业ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>98.18</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>512290</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国泰中证生物医药ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>99.23</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>161122</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达中证万得生物科技指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>161726</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商国证生物医药指数</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>165519</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>信诚中证800医药指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>512120</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华安中证细分医药ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>98.10</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001563</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华富健康文娱灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003458</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>嘉实稳宏债券A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>24.20</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003459</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>嘉实稳宏债券C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>24.20</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003581</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>新疆前海联合国民健康产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007111</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>新疆前海联合国民健康产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005543</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>银华心诚灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>88.51</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005848</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>银华裕利混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>90.24</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009360</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>招商创新增长混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>89.78</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009361</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>招商创新增长混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>89.78</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1113,7 +1343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,15 +1364,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004403</t>
+          <t>110011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>平安股息精选沪港深股票A</t>
+          <t>易方达中小盘混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>314.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.0672</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004404</t>
+          <t>009342</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>平安股息精选沪港深股票C</t>
+          <t>易方达优质企业三年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>105.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4038</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>110011</t>
+          <t>161726</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达中小盘混合</t>
+          <t>招商国证生物医药指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>127.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.0848</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003366</t>
+          <t>512290</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商汇金中证转型成长指数</t>
+          <t>国泰中证生物医药ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.44</t>
+          <t>33.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7797</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004987</t>
+          <t>159992</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺德新享灵活配置混合</t>
+          <t>银华中证创新药产业ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>39.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2522</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009342</t>
+          <t>159837</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达优质企业三年持有期混合</t>
+          <t>易方达中证生物科技主题ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>25.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7988</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000589</t>
+          <t>515120</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>光大保德信银发商机主题混合</t>
+          <t>广发中证创新药产业ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>87.41</t>
+          <t>12.82</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4179</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>360012</t>
+          <t>161122</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>光大保德信中小盘混合</t>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.98</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3523</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1388,15 +1708,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>94.78</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>3.97</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1416,15 +1746,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>94.78</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>3.97</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>512290</t>
+          <t>004403</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰中证生物医药ETF</t>
+          <t>平安股息精选沪港深股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007613</t>
+          <t>000589</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>嘉合医疗健康混合</t>
+          <t>光大保德信银发商机主题混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>70.30</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>515120</t>
+          <t>360012</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广发中证创新药产业ETF</t>
+          <t>光大保德信中小盘混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>99.26</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001571</t>
+          <t>004987</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>嘉合磐石混合A</t>
+          <t>诺德新享灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23.60</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1546,25 +1926,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001572</t>
+          <t>001571</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>嘉合磐石混合C</t>
+          <t>嘉合磐石混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>23.60</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1.43</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>159837</t>
+          <t>007613</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>易方达中证生物科技主题ETF</t>
+          <t>嘉合医疗健康混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>98.81</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>70.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>159992</t>
+          <t>001572</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>银华中证创新药产业ETF</t>
+          <t>嘉合磐石混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>98.32</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>161122</t>
+          <t>010572</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>易方达中证万得生物科技指数（LOF）A</t>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>94.44</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>4.57</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010572</t>
+          <t>004404</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>易方达中证万得生物科技指数（LOF）C</t>
+          <t>平安股息精选沪港深股票C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>161726</t>
+          <t>003366</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>招商国证生物医药指数</t>
+          <t>浙商汇金中证转型成长指数</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
+          <t>95.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002007-华兰生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/002007-华兰生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2151,4 +2152,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>287.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20.1768</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2386</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3329</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002007-华兰生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/002007-华兰生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2778,4 +2779,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1964</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2878</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002007-华兰生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/002007-华兰生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3101,4 +3102,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002007-华兰生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/002007-华兰生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3110,7 +3111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3121,17 +3122,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3141,14 +3162,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.58</v>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9766</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3157,14 +3200,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22</v>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3111</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3173,14 +3238,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>34.74</v>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3189,13 +3276,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>22</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>21.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002007-华兰生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/002007-华兰生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3357,7 +3358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3368,17 +3369,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3388,14 +3409,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.45</v>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6925</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3404,14 +3447,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.58</v>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3420,14 +3485,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22</v>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3436,14 +3523,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>34.74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -3452,13 +3661,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>34.74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>22</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>21.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002007-华兰生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/002007-华兰生物.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3566,7 +3567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3577,17 +3578,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3597,14 +3618,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.93</v>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2712</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3613,14 +3656,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.45</v>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3629,14 +3694,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.58</v>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3645,14 +3732,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22</v>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3661,14 +3770,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>34.74</v>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -3677,13 +3808,373 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015139</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015140</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>34.74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>22</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>21.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002007-华兰生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/002007-华兰生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.75</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.45</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>22</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>34.74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>34.74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>22</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>21.32</v>
       </c>
     </row>
@@ -600,6 +617,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8506</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1073,7 +1336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1281,7 +1544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1527,7 +1790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1849,7 +2112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2475,7 +2738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3291,7 +3554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002007-华兰生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/002007-华兰生物.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>1.26</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.75</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.45</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>34.74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,922 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>34.74</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>22</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>21.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>158.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6637</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>195.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4899</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3421</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2296</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6499</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6407</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005543</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华心诚灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3855</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000589</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信银发商机主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003458</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实稳宏债券A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005848</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华裕利混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005463</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华多元收益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003459</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实稳宏债券C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005464</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华多元收益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1526,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9408</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159643</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰国证疫苗与生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016356</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏国证疫苗与生物科技指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159646</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞国证疫苗与生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159645</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国国证疫苗与生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>016355</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏国证疫苗与生物科技指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -862,7 +2397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1336,7 +2871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1544,7 +3079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1790,7 +3325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2112,7 +3647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2738,7 +4273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3552,896 +5087,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161726</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商国证生物医药指数</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>158.66</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.6637</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005911</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发双擎升级混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>195.37</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5.4899</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000960</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商医药健康产业股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>32.26</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.3421</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>512290</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰中证生物医药ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>41.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.2296</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>159992</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银华中证创新药产业ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>49.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.18</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.6499</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009360</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商创新增长混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>21.17</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.78</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.6407</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005543</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银华心诚灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14.07</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.51</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3855</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161122</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达中证万得生物科技指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3225</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009314</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发双擎升级混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1579</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009361</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商创新增长混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.78</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1496</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>165519</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>信诚中证800医药指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0758</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000589</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>光大保德信银发商机主题混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>83.21</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0654</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003581</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>新疆前海联合国民健康产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0426</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>512120</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华安中证细分医药ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>98.10</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0411</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003458</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>嘉实稳宏债券A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>24.20</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001563</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华富健康文娱灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005848</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>银华裕利混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.24</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005463</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>银华多元收益定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007111</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>新疆前海联合国民健康产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003459</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>嘉实稳宏债券C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>24.20</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010572</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>易方达中证万得生物科技指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005464</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>银华多元收益定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>